--- a/src/main/java/com/freecharge/testdata/TestData.xlsx
+++ b/src/main/java/com/freecharge/testdata/TestData.xlsx
@@ -1,20 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27230"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulrana/Documents/IntellijProjects/freecharge/src/main/java/com/freecharge/testdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="664"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="664" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="27" r:id="rId1"/>
+    <sheet name="Myntra" sheetId="28" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="29" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>RunMode</t>
   </si>
@@ -35,6 +50,15 @@
   </si>
   <si>
     <t>def@xyz.com</t>
+  </si>
+  <si>
+    <t>akshah911@gmail.com</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Ankit@007</t>
   </si>
 </sst>
 </file>
@@ -107,16 +131,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -208,9 +232,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -243,9 +267,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -451,18 +475,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -473,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -484,7 +508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -502,4 +526,61 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="abc@xyz.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>